--- a/data/pca/factorExposure/factorExposure_2017-03-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0158215064624397</v>
+        <v>0.01096815498925686</v>
       </c>
       <c r="C2">
-        <v>0.0184245812788734</v>
+        <v>-0.04253115623237493</v>
       </c>
       <c r="D2">
-        <v>0.02783369260611566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.030045427472337</v>
+      </c>
+      <c r="E2">
+        <v>-0.03991252540909988</v>
+      </c>
+      <c r="F2">
+        <v>-0.0005745211381771807</v>
+      </c>
+      <c r="G2">
+        <v>0.1045711447884005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02409651803226395</v>
+        <v>0.03953295597209619</v>
       </c>
       <c r="C3">
-        <v>-0.00218032477341965</v>
+        <v>-0.09986638338992784</v>
       </c>
       <c r="D3">
-        <v>0.09081079668680975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01786422246303216</v>
+      </c>
+      <c r="E3">
+        <v>-0.1028748079451695</v>
+      </c>
+      <c r="F3">
+        <v>0.006841529214243801</v>
+      </c>
+      <c r="G3">
+        <v>0.1571508599241653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02820853403314764</v>
+        <v>0.05484357286059463</v>
       </c>
       <c r="C4">
-        <v>0.009942581795591949</v>
+        <v>-0.06870052571040224</v>
       </c>
       <c r="D4">
-        <v>0.07713460825896024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02486542081144808</v>
+      </c>
+      <c r="E4">
+        <v>-0.03631939658847457</v>
+      </c>
+      <c r="F4">
+        <v>-0.008211744276187045</v>
+      </c>
+      <c r="G4">
+        <v>0.09944841600690414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01067154332529005</v>
+        <v>0.0358077673691978</v>
       </c>
       <c r="C6">
-        <v>0.01081036268849884</v>
+        <v>-0.05079503453156305</v>
       </c>
       <c r="D6">
-        <v>0.07376266256868112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01738645866285931</v>
+      </c>
+      <c r="E6">
+        <v>-0.04123286116333544</v>
+      </c>
+      <c r="F6">
+        <v>-0.003359818815925525</v>
+      </c>
+      <c r="G6">
+        <v>0.08708234327235981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.001086553022089071</v>
+        <v>0.02058001517410686</v>
       </c>
       <c r="C7">
-        <v>0.01203005684991103</v>
+        <v>-0.03927933872071226</v>
       </c>
       <c r="D7">
-        <v>0.03399749018106562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01398348268594697</v>
+      </c>
+      <c r="E7">
+        <v>-0.008245399829869923</v>
+      </c>
+      <c r="F7">
+        <v>0.005694068762423204</v>
+      </c>
+      <c r="G7">
+        <v>0.1239236182172071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003532151861506398</v>
+        <v>0.00225433781665187</v>
       </c>
       <c r="C8">
-        <v>0.002569916355261448</v>
+        <v>-0.024140860632761</v>
       </c>
       <c r="D8">
-        <v>-0.007040834647784876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004022787027015232</v>
+      </c>
+      <c r="E8">
+        <v>-0.03169454876365151</v>
+      </c>
+      <c r="F8">
+        <v>-0.001561201955122899</v>
+      </c>
+      <c r="G8">
+        <v>0.07129153617336821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01377055722894728</v>
+        <v>0.0330754555011285</v>
       </c>
       <c r="C9">
-        <v>0.008302685985888151</v>
+        <v>-0.05017001648514047</v>
       </c>
       <c r="D9">
-        <v>0.05631473897897123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01649686123304831</v>
+      </c>
+      <c r="E9">
+        <v>-0.02482997358508839</v>
+      </c>
+      <c r="F9">
+        <v>-0.00612109190736707</v>
+      </c>
+      <c r="G9">
+        <v>0.09975140896556209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1518428946723316</v>
+        <v>0.09971181982069181</v>
       </c>
       <c r="C10">
-        <v>-0.08693958209158766</v>
+        <v>0.1822175000092202</v>
       </c>
       <c r="D10">
-        <v>-0.1156313860100355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01543624722457753</v>
+      </c>
+      <c r="E10">
+        <v>-0.01983677212816377</v>
+      </c>
+      <c r="F10">
+        <v>0.02178780784129389</v>
+      </c>
+      <c r="G10">
+        <v>0.05601684020001864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00223948684417675</v>
+        <v>0.03382800908385752</v>
       </c>
       <c r="C11">
-        <v>-0.0004892048262586341</v>
+        <v>-0.05305874592959831</v>
       </c>
       <c r="D11">
-        <v>0.05021376355922564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002569394400368895</v>
+      </c>
+      <c r="E11">
+        <v>-0.01911912224524239</v>
+      </c>
+      <c r="F11">
+        <v>-0.01686277597777747</v>
+      </c>
+      <c r="G11">
+        <v>0.09079586418101354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006445817238765519</v>
+        <v>0.03536604504556536</v>
       </c>
       <c r="C12">
-        <v>0.002760905796939665</v>
+        <v>-0.04787663224326616</v>
       </c>
       <c r="D12">
-        <v>0.0439473094814833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006654973947396657</v>
+      </c>
+      <c r="E12">
+        <v>-0.009831766109570636</v>
+      </c>
+      <c r="F12">
+        <v>-0.0002815581285605168</v>
+      </c>
+      <c r="G12">
+        <v>0.08233039344950015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01488481952566642</v>
+        <v>0.01485060722819666</v>
       </c>
       <c r="C13">
-        <v>0.01597510045627601</v>
+        <v>-0.04169365710883242</v>
       </c>
       <c r="D13">
-        <v>0.03210248608784959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02676905089802672</v>
+      </c>
+      <c r="E13">
+        <v>-0.03980289071440284</v>
+      </c>
+      <c r="F13">
+        <v>0.002023242188252106</v>
+      </c>
+      <c r="G13">
+        <v>0.1418200574297221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002457497102431544</v>
+        <v>0.008120533482150735</v>
       </c>
       <c r="C14">
-        <v>0.006249391959354117</v>
+        <v>-0.02809797580451376</v>
       </c>
       <c r="D14">
-        <v>0.0184074417542686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0102693742654058</v>
+      </c>
+      <c r="E14">
+        <v>-0.009303533517640327</v>
+      </c>
+      <c r="F14">
+        <v>0.008416555206388003</v>
+      </c>
+      <c r="G14">
+        <v>0.1080645285434826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005863857531943409</v>
+        <v>0.03252340896193191</v>
       </c>
       <c r="C16">
-        <v>-0.002534019276913449</v>
+        <v>-0.04611646759501419</v>
       </c>
       <c r="D16">
-        <v>0.03958475427058551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002020468228008037</v>
+      </c>
+      <c r="E16">
+        <v>-0.01544301173229151</v>
+      </c>
+      <c r="F16">
+        <v>0.001716692906711711</v>
+      </c>
+      <c r="G16">
+        <v>0.09293338267083691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.009821463831662273</v>
+        <v>0.02194718276667952</v>
       </c>
       <c r="C19">
-        <v>0.009212023576924378</v>
+        <v>-0.05138094482747087</v>
       </c>
       <c r="D19">
-        <v>0.03731762306925043</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0197624646924158</v>
+      </c>
+      <c r="E19">
+        <v>-0.08500157075887954</v>
+      </c>
+      <c r="F19">
+        <v>-0.01219145359397871</v>
+      </c>
+      <c r="G19">
+        <v>0.1386016454043948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.002412701666402757</v>
+        <v>0.01505612626679816</v>
       </c>
       <c r="C20">
-        <v>0.01059368508503206</v>
+        <v>-0.0420079351051481</v>
       </c>
       <c r="D20">
-        <v>0.03125894224481903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01447275914406359</v>
+      </c>
+      <c r="E20">
+        <v>-0.03883215265865186</v>
+      </c>
+      <c r="F20">
+        <v>0.01675057957825874</v>
+      </c>
+      <c r="G20">
+        <v>0.1117951004069953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.007967419961020128</v>
+        <v>0.01076007916506245</v>
       </c>
       <c r="C21">
-        <v>0.01016029991923652</v>
+        <v>-0.03807269714029426</v>
       </c>
       <c r="D21">
-        <v>0.01591141380857377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01958020059048479</v>
+      </c>
+      <c r="E21">
+        <v>-0.05321391481296343</v>
+      </c>
+      <c r="F21">
+        <v>0.004878236258005667</v>
+      </c>
+      <c r="G21">
+        <v>0.1399126918061661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001107642619559222</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006966636700936627</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.001912732067763779</v>
+      </c>
+      <c r="E22">
+        <v>-0.01394209284126177</v>
+      </c>
+      <c r="F22">
+        <v>-0.01032464767374511</v>
+      </c>
+      <c r="G22">
+        <v>-0.0007539011594404749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001104070775570262</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006967283176037215</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.001908260188754819</v>
+      </c>
+      <c r="E23">
+        <v>-0.01390124489071036</v>
+      </c>
+      <c r="F23">
+        <v>-0.01029432329205667</v>
+      </c>
+      <c r="G23">
+        <v>-0.0008718566730942325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001588024336405401</v>
+        <v>0.02770228798008603</v>
       </c>
       <c r="C24">
-        <v>0.006524600440568773</v>
+        <v>-0.04999428067938411</v>
       </c>
       <c r="D24">
-        <v>0.04315513768956739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007261370438952475</v>
+      </c>
+      <c r="E24">
+        <v>-0.01351435364074135</v>
+      </c>
+      <c r="F24">
+        <v>-0.009100305546038178</v>
+      </c>
+      <c r="G24">
+        <v>0.09118759114677144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01563454077862385</v>
+        <v>0.04144948231022007</v>
       </c>
       <c r="C25">
-        <v>0.003202519918580137</v>
+        <v>-0.05768564564705402</v>
       </c>
       <c r="D25">
-        <v>0.05696080542251439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01131769026506201</v>
+      </c>
+      <c r="E25">
+        <v>-0.005548635248961657</v>
+      </c>
+      <c r="F25">
+        <v>-0.003580019280610732</v>
+      </c>
+      <c r="G25">
+        <v>0.09858448046801503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009432947222927202</v>
+        <v>0.01344670436364259</v>
       </c>
       <c r="C26">
-        <v>0.0195664186501512</v>
+        <v>-0.01215479671831239</v>
       </c>
       <c r="D26">
-        <v>-0.0008880416043790851</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02416844227538947</v>
+      </c>
+      <c r="E26">
+        <v>-0.009787619874542779</v>
+      </c>
+      <c r="F26">
+        <v>0.007823519301534394</v>
+      </c>
+      <c r="G26">
+        <v>0.08437859103870676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.2036249405902825</v>
+        <v>0.1287054650240518</v>
       </c>
       <c r="C28">
-        <v>-0.09983258283053527</v>
+        <v>0.2415871800185496</v>
       </c>
       <c r="D28">
-        <v>-0.1447445619705251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006511096821782665</v>
+      </c>
+      <c r="E28">
+        <v>-0.008972335048243043</v>
+      </c>
+      <c r="F28">
+        <v>0.01780010245494934</v>
+      </c>
+      <c r="G28">
+        <v>0.04834747872686247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007824817871094316</v>
+        <v>0.00864628704929221</v>
       </c>
       <c r="C29">
-        <v>0.003059265192551007</v>
+        <v>-0.02278389903301641</v>
       </c>
       <c r="D29">
-        <v>0.01496924186108066</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009321698844478542</v>
+      </c>
+      <c r="E29">
+        <v>-0.005290038915363604</v>
+      </c>
+      <c r="F29">
+        <v>0.01488263558204217</v>
+      </c>
+      <c r="G29">
+        <v>0.09968918780490904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.009662076712803103</v>
+        <v>0.03979355933492487</v>
       </c>
       <c r="C30">
-        <v>0.02169447504823812</v>
+        <v>-0.06891480305005956</v>
       </c>
       <c r="D30">
-        <v>0.0957915851117016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02942845953509211</v>
+      </c>
+      <c r="E30">
+        <v>-0.06569679450122964</v>
+      </c>
+      <c r="F30">
+        <v>-0.03837092108572462</v>
+      </c>
+      <c r="G30">
+        <v>0.1350882588328274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02432828657153908</v>
+        <v>0.05284954636722734</v>
       </c>
       <c r="C31">
-        <v>-0.00756698368063223</v>
+        <v>-0.03989578699826213</v>
       </c>
       <c r="D31">
-        <v>0.03020261547248782</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003831515562702708</v>
+      </c>
+      <c r="E31">
+        <v>0.001488104300156845</v>
+      </c>
+      <c r="F31">
+        <v>0.03824044250374937</v>
+      </c>
+      <c r="G31">
+        <v>0.09796039015365363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003621946927876405</v>
+        <v>0.002040746368512675</v>
       </c>
       <c r="C32">
-        <v>-0.007116383972028379</v>
+        <v>-0.02102322750799041</v>
       </c>
       <c r="D32">
-        <v>-0.008001322511581123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002594280604266108</v>
+      </c>
+      <c r="E32">
+        <v>-0.04036165745697476</v>
+      </c>
+      <c r="F32">
+        <v>-0.03693431894629211</v>
+      </c>
+      <c r="G32">
+        <v>0.08795456639903759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.008721896703755942</v>
+        <v>0.02744620155331235</v>
       </c>
       <c r="C33">
-        <v>0.007711637101110441</v>
+        <v>-0.05124081728955424</v>
       </c>
       <c r="D33">
-        <v>0.04043472033717918</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01640669088105277</v>
+      </c>
+      <c r="E33">
+        <v>-0.04858927707367037</v>
+      </c>
+      <c r="F33">
+        <v>-0.01266569557079784</v>
+      </c>
+      <c r="G33">
+        <v>0.1626415572522914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0130822168095966</v>
+        <v>0.0389210363525246</v>
       </c>
       <c r="C34">
-        <v>-0.01368247255451506</v>
+        <v>-0.05947215204712335</v>
       </c>
       <c r="D34">
-        <v>0.05657981396754945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004260109745679136</v>
+      </c>
+      <c r="E34">
+        <v>-0.01075495781319318</v>
+      </c>
+      <c r="F34">
+        <v>-0.01983076406343747</v>
+      </c>
+      <c r="G34">
+        <v>0.09465423675427552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0127765469339736</v>
+        <v>0.01584902601472344</v>
       </c>
       <c r="C36">
-        <v>0.005121907398196466</v>
+        <v>-0.01052218442242649</v>
       </c>
       <c r="D36">
-        <v>0.003713092676326891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01286399573594957</v>
+      </c>
+      <c r="E36">
+        <v>-0.01064355605963163</v>
+      </c>
+      <c r="F36">
+        <v>0.00757300291506862</v>
+      </c>
+      <c r="G36">
+        <v>0.09282024469324161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0191100066799741</v>
+        <v>0.0306835925656618</v>
       </c>
       <c r="C38">
-        <v>-0.0188161799744904</v>
+        <v>-0.03066766209805252</v>
       </c>
       <c r="D38">
-        <v>0.04077436833737351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007468305171035058</v>
+      </c>
+      <c r="E38">
+        <v>-0.00698108617677673</v>
+      </c>
+      <c r="F38">
+        <v>0.01791631112552013</v>
+      </c>
+      <c r="G38">
+        <v>0.08689840325877755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01107874391503217</v>
+        <v>0.03585821296332103</v>
       </c>
       <c r="C39">
-        <v>0.01530377587567155</v>
+        <v>-0.07921628156511706</v>
       </c>
       <c r="D39">
-        <v>0.0986460868565307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01172772740248978</v>
+      </c>
+      <c r="E39">
+        <v>-0.03075952135703994</v>
+      </c>
+      <c r="F39">
+        <v>-0.01887685037948412</v>
+      </c>
+      <c r="G39">
+        <v>0.0904158634409164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01413003080515152</v>
+        <v>0.01337843228105184</v>
       </c>
       <c r="C40">
-        <v>0.004401446347431083</v>
+        <v>-0.03834323558534175</v>
       </c>
       <c r="D40">
-        <v>0.02777086270022354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01482871938060608</v>
+      </c>
+      <c r="E40">
+        <v>-0.03223670572799245</v>
+      </c>
+      <c r="F40">
+        <v>0.01276466477346848</v>
+      </c>
+      <c r="G40">
+        <v>0.1234206893552282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01479106268274576</v>
+        <v>0.02011361223700912</v>
       </c>
       <c r="C41">
-        <v>-0.004318153042287568</v>
+        <v>-0.004127607929023534</v>
       </c>
       <c r="D41">
-        <v>-0.01049696590028893</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004725503436167886</v>
+      </c>
+      <c r="E41">
+        <v>-0.00749826249021551</v>
+      </c>
+      <c r="F41">
+        <v>0.01532998599617126</v>
+      </c>
+      <c r="G41">
+        <v>0.08601661985166346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.02855731438958705</v>
+        <v>0.007093820581067047</v>
       </c>
       <c r="C42">
-        <v>0.08854683221061904</v>
+        <v>-0.02969520793326345</v>
       </c>
       <c r="D42">
-        <v>0.1156763815635456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0875981120201248</v>
+      </c>
+      <c r="E42">
+        <v>-0.009164118673109118</v>
+      </c>
+      <c r="F42">
+        <v>0.040861586280988</v>
+      </c>
+      <c r="G42">
+        <v>-0.02486617613240532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01453963748494055</v>
+        <v>0.03481322631593006</v>
       </c>
       <c r="C43">
-        <v>-0.003308649938781474</v>
+        <v>-0.01966814148579162</v>
       </c>
       <c r="D43">
-        <v>-0.01105023926680597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006161223278604981</v>
+      </c>
+      <c r="E43">
+        <v>-0.02194309179836845</v>
+      </c>
+      <c r="F43">
+        <v>0.007864635990851397</v>
+      </c>
+      <c r="G43">
+        <v>0.1192500589887716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.000861352667508085</v>
+        <v>0.0134849080331235</v>
       </c>
       <c r="C44">
-        <v>0.00318094149204556</v>
+        <v>-0.05825974698850301</v>
       </c>
       <c r="D44">
-        <v>0.04600100830952386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006916837879481318</v>
+      </c>
+      <c r="E44">
+        <v>-0.02537765171728775</v>
+      </c>
+      <c r="F44">
+        <v>0.008469267116620875</v>
+      </c>
+      <c r="G44">
+        <v>0.110372349231816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005861865834023727</v>
+        <v>0.008852519379163546</v>
       </c>
       <c r="C46">
-        <v>0.007723830017327821</v>
+        <v>-0.01475781168261394</v>
       </c>
       <c r="D46">
-        <v>-0.00390629681634079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01254156354172989</v>
+      </c>
+      <c r="E46">
+        <v>-0.0001367726262626679</v>
+      </c>
+      <c r="F46">
+        <v>0.01870643067853651</v>
+      </c>
+      <c r="G46">
+        <v>0.108236812477267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02677747030168724</v>
+        <v>0.07757200266916453</v>
       </c>
       <c r="C47">
-        <v>-0.01643813991146426</v>
+        <v>-0.06983552934209676</v>
       </c>
       <c r="D47">
-        <v>0.07633218251467495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005013456056578263</v>
+      </c>
+      <c r="E47">
+        <v>0.009025616527081622</v>
+      </c>
+      <c r="F47">
+        <v>0.05267105738868814</v>
+      </c>
+      <c r="G47">
+        <v>0.0833989715323369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.009134112740516846</v>
+        <v>0.01841353333418413</v>
       </c>
       <c r="C48">
-        <v>-0.003811466734722314</v>
+        <v>-0.01358019511740701</v>
       </c>
       <c r="D48">
-        <v>0.01510882203899993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002493826863025787</v>
+      </c>
+      <c r="E48">
+        <v>-0.006513593285653814</v>
+      </c>
+      <c r="F48">
+        <v>0.01911433699254491</v>
+      </c>
+      <c r="G48">
+        <v>0.09861269858806182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03409975695488181</v>
+        <v>0.07432555262913142</v>
       </c>
       <c r="C50">
-        <v>-0.01850531631328819</v>
+        <v>-0.07303460120500282</v>
       </c>
       <c r="D50">
-        <v>0.06798665329291084</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002135738283452509</v>
+      </c>
+      <c r="E50">
+        <v>0.005345851385976618</v>
+      </c>
+      <c r="F50">
+        <v>0.05297743177405916</v>
+      </c>
+      <c r="G50">
+        <v>0.09333400863395518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.009592964520834597</v>
+        <v>0.01396296106894355</v>
       </c>
       <c r="C51">
-        <v>0.001172657194760041</v>
+        <v>-0.03679803175262165</v>
       </c>
       <c r="D51">
-        <v>0.02713705753505841</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01070055568716856</v>
+      </c>
+      <c r="E51">
+        <v>-0.03100748525495838</v>
+      </c>
+      <c r="F51">
+        <v>-0.01751613008045007</v>
+      </c>
+      <c r="G51">
+        <v>0.1260904711829887</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04322646116700939</v>
+        <v>0.08143010618291867</v>
       </c>
       <c r="C53">
-        <v>-0.02324660113268455</v>
+        <v>-0.08551800942949468</v>
       </c>
       <c r="D53">
-        <v>0.1249529114700498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003403611142712023</v>
+      </c>
+      <c r="E53">
+        <v>0.0278201523350287</v>
+      </c>
+      <c r="F53">
+        <v>0.06054915304915167</v>
+      </c>
+      <c r="G53">
+        <v>0.09338463031097183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01721095751517642</v>
+        <v>0.03132001713827897</v>
       </c>
       <c r="C54">
-        <v>-0.01261069149958977</v>
+        <v>-0.01943353853855979</v>
       </c>
       <c r="D54">
-        <v>-0.002064510750151827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0009970479656247909</v>
+      </c>
+      <c r="E54">
+        <v>-0.02025239299458651</v>
+      </c>
+      <c r="F54">
+        <v>0.006373828718746581</v>
+      </c>
+      <c r="G54">
+        <v>0.1080717754981769</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02589837031186809</v>
+        <v>0.07181427623497355</v>
       </c>
       <c r="C55">
-        <v>-0.01526733494821549</v>
+        <v>-0.06843145107862211</v>
       </c>
       <c r="D55">
-        <v>0.1017035462632385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005027305628443257</v>
+      </c>
+      <c r="E55">
+        <v>0.02535329816976578</v>
+      </c>
+      <c r="F55">
+        <v>0.06054909574360698</v>
+      </c>
+      <c r="G55">
+        <v>0.06917140546189618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.05136982812583485</v>
+        <v>0.1359945337638254</v>
       </c>
       <c r="C56">
-        <v>-0.03187360313732778</v>
+        <v>-0.1084282258436158</v>
       </c>
       <c r="D56">
-        <v>0.1594171815719172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01263597123747472</v>
+      </c>
+      <c r="E56">
+        <v>0.03847300283187729</v>
+      </c>
+      <c r="F56">
+        <v>0.07751811408988932</v>
+      </c>
+      <c r="G56">
+        <v>0.04305467307057288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01779045485822209</v>
+        <v>0.005584774435926851</v>
       </c>
       <c r="C57">
-        <v>0.01567637936534249</v>
+        <v>-0.005829703904451669</v>
       </c>
       <c r="D57">
-        <v>0.02768536614131123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02271966986037372</v>
+      </c>
+      <c r="E57">
+        <v>-0.02491292734338383</v>
+      </c>
+      <c r="F57">
+        <v>-0.004747315267830783</v>
+      </c>
+      <c r="G57">
+        <v>0.02309257825657084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01211953534710856</v>
+        <v>0.05071185994713642</v>
       </c>
       <c r="C58">
-        <v>-0.004389135356800131</v>
+        <v>-0.04467536285913561</v>
       </c>
       <c r="D58">
-        <v>0.09621410660046643</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02279853178375672</v>
+      </c>
+      <c r="E58">
+        <v>-0.8840044204270358</v>
+      </c>
+      <c r="F58">
+        <v>0.3457351634647616</v>
+      </c>
+      <c r="G58">
+        <v>-0.2400039696377086</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2262721171727785</v>
+        <v>0.1604221029740868</v>
       </c>
       <c r="C59">
-        <v>-0.1171150371552979</v>
+        <v>0.2054915526856747</v>
       </c>
       <c r="D59">
-        <v>-0.1223478724239039</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01123185582802922</v>
+      </c>
+      <c r="E59">
+        <v>-0.02251068721247414</v>
+      </c>
+      <c r="F59">
+        <v>0.002456814554294004</v>
+      </c>
+      <c r="G59">
+        <v>0.0425901854105632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2084996356149283</v>
+        <v>0.2861969485763261</v>
       </c>
       <c r="C60">
-        <v>-0.08888897820844778</v>
+        <v>-0.1162723122934169</v>
       </c>
       <c r="D60">
-        <v>0.1619790984845067</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01323404215839972</v>
+      </c>
+      <c r="E60">
+        <v>-0.03562833716472338</v>
+      </c>
+      <c r="F60">
+        <v>-0.3458495788546614</v>
+      </c>
+      <c r="G60">
+        <v>-0.1655383826494483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002175994527400416</v>
+        <v>0.03785675343007985</v>
       </c>
       <c r="C61">
-        <v>0.002203246287276875</v>
+        <v>-0.06607899439189177</v>
       </c>
       <c r="D61">
-        <v>0.07551206177667931</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005848007331983151</v>
+      </c>
+      <c r="E61">
+        <v>-0.0261032395181387</v>
+      </c>
+      <c r="F61">
+        <v>-0.01183066731737128</v>
+      </c>
+      <c r="G61">
+        <v>0.09845641596966302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.004915745204238677</v>
+        <v>0.01472386046653766</v>
       </c>
       <c r="C63">
-        <v>0.005382812825647026</v>
+        <v>-0.03060921630002911</v>
       </c>
       <c r="D63">
-        <v>0.02517272029440284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008749203130100093</v>
+      </c>
+      <c r="E63">
+        <v>-0.006469841395689385</v>
+      </c>
+      <c r="F63">
+        <v>0.01423849975122625</v>
+      </c>
+      <c r="G63">
+        <v>0.09439612346071313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02662745341433098</v>
+        <v>0.04889467902490204</v>
       </c>
       <c r="C64">
-        <v>-0.008295319041087521</v>
+        <v>-0.04767825976158207</v>
       </c>
       <c r="D64">
-        <v>0.05507654654232981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006287172920935989</v>
+      </c>
+      <c r="E64">
+        <v>-0.008070379677004682</v>
+      </c>
+      <c r="F64">
+        <v>-0.00356330901292023</v>
+      </c>
+      <c r="G64">
+        <v>0.1001525407567351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03426193358004482</v>
+        <v>0.07430570924809451</v>
       </c>
       <c r="C65">
-        <v>0.000637687245667431</v>
+        <v>-0.05900799166383856</v>
       </c>
       <c r="D65">
-        <v>0.1143465618881413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01710734658379261</v>
+      </c>
+      <c r="E65">
+        <v>-0.04498846132778433</v>
+      </c>
+      <c r="F65">
+        <v>-0.02542051967522222</v>
+      </c>
+      <c r="G65">
+        <v>0.04425526173360558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008237637077796638</v>
+        <v>0.04933502061007332</v>
       </c>
       <c r="C66">
-        <v>0.01320602330872289</v>
+        <v>-0.1060517151321135</v>
       </c>
       <c r="D66">
-        <v>0.1395741188423464</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01197911525318331</v>
+      </c>
+      <c r="E66">
+        <v>-0.04520134522934306</v>
+      </c>
+      <c r="F66">
+        <v>-0.03012912128880953</v>
+      </c>
+      <c r="G66">
+        <v>0.1051629823251412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04201334542937648</v>
+        <v>0.05396208753374783</v>
       </c>
       <c r="C67">
-        <v>-0.02703309095738404</v>
+        <v>-0.03475193305271133</v>
       </c>
       <c r="D67">
-        <v>0.06092590448658106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006052740445946091</v>
+      </c>
+      <c r="E67">
+        <v>0.00300653008859945</v>
+      </c>
+      <c r="F67">
+        <v>0.01653880913353885</v>
+      </c>
+      <c r="G67">
+        <v>0.07406666141193875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.233579755650181</v>
+        <v>0.1588916391665801</v>
       </c>
       <c r="C68">
-        <v>-0.09912404327782211</v>
+        <v>0.2697346001411981</v>
       </c>
       <c r="D68">
-        <v>-0.1790462547169593</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005858929987010573</v>
+      </c>
+      <c r="E68">
+        <v>-0.01063142448163585</v>
+      </c>
+      <c r="F68">
+        <v>0.03865487855891694</v>
+      </c>
+      <c r="G68">
+        <v>0.03060108891293322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03371729337452781</v>
+        <v>0.08122257865369578</v>
       </c>
       <c r="C69">
-        <v>-0.02443517222358814</v>
+        <v>-0.07232864392257049</v>
       </c>
       <c r="D69">
-        <v>0.07776067502783722</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008999675493430313</v>
+      </c>
+      <c r="E69">
+        <v>0.02207691234209847</v>
+      </c>
+      <c r="F69">
+        <v>0.03342145921707274</v>
+      </c>
+      <c r="G69">
+        <v>0.1003850658572219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1911055845352323</v>
+        <v>0.1429837915622008</v>
       </c>
       <c r="C71">
-        <v>-0.08837692251430856</v>
+        <v>0.2269926571386125</v>
       </c>
       <c r="D71">
-        <v>-0.1224749971706354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002487459265957215</v>
+      </c>
+      <c r="E71">
+        <v>-0.03125180775214476</v>
+      </c>
+      <c r="F71">
+        <v>0.02757138859466178</v>
+      </c>
+      <c r="G71">
+        <v>0.07104759013448698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01792220086440233</v>
+        <v>0.08464206731629408</v>
       </c>
       <c r="C72">
-        <v>-0.01695635213944336</v>
+        <v>-0.06899685837008439</v>
       </c>
       <c r="D72">
-        <v>0.1046613186008202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008571998544353681</v>
+      </c>
+      <c r="E72">
+        <v>0.008333882398178935</v>
+      </c>
+      <c r="F72">
+        <v>-0.03192564058999101</v>
+      </c>
+      <c r="G72">
+        <v>0.08933613708840125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2600762543098151</v>
+        <v>0.3735644760783292</v>
       </c>
       <c r="C73">
-        <v>-0.1061956159258019</v>
+        <v>-0.1210311455370293</v>
       </c>
       <c r="D73">
-        <v>0.2902713666788435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02285554290711763</v>
+      </c>
+      <c r="E73">
+        <v>-0.123903825900186</v>
+      </c>
+      <c r="F73">
+        <v>-0.5747476591940796</v>
+      </c>
+      <c r="G73">
+        <v>-0.2883932823242223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0551629298041804</v>
+        <v>0.1045028375154964</v>
       </c>
       <c r="C74">
-        <v>-0.03583601314129264</v>
+        <v>-0.1104922265594812</v>
       </c>
       <c r="D74">
-        <v>0.1734942730405275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009392687519038032</v>
+      </c>
+      <c r="E74">
+        <v>0.01105694110470417</v>
+      </c>
+      <c r="F74">
+        <v>0.06660398855851374</v>
+      </c>
+      <c r="G74">
+        <v>0.0815408848554609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1257702722429774</v>
+        <v>0.2473630625030231</v>
       </c>
       <c r="C75">
-        <v>-0.07717862574648218</v>
+        <v>-0.1532902946530554</v>
       </c>
       <c r="D75">
-        <v>0.2943358326355026</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03148116256539525</v>
+      </c>
+      <c r="E75">
+        <v>0.08045983414632098</v>
+      </c>
+      <c r="F75">
+        <v>0.1587670755119655</v>
+      </c>
+      <c r="G75">
+        <v>-0.02190849026887159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.06050992781310438</v>
+        <v>0.1173717482323865</v>
       </c>
       <c r="C76">
-        <v>-0.0442458659175612</v>
+        <v>-0.1106716811934543</v>
       </c>
       <c r="D76">
-        <v>0.2001098683576762</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01755189207997827</v>
+      </c>
+      <c r="E76">
+        <v>0.03016827874158993</v>
+      </c>
+      <c r="F76">
+        <v>0.09451658452753142</v>
+      </c>
+      <c r="G76">
+        <v>0.0564006775729009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01864394899862164</v>
+        <v>0.06975648418782013</v>
       </c>
       <c r="C77">
-        <v>0.0004385936193681693</v>
+        <v>-0.05986797472906657</v>
       </c>
       <c r="D77">
-        <v>0.08167780283382059</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01024429208611069</v>
+      </c>
+      <c r="E77">
+        <v>-0.04952457333391119</v>
+      </c>
+      <c r="F77">
+        <v>-0.005502263108747766</v>
+      </c>
+      <c r="G77">
+        <v>0.06794463561008919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.00936575043412736</v>
+        <v>0.04188457779049503</v>
       </c>
       <c r="C78">
-        <v>-0.0006092407682824549</v>
+        <v>-0.0500010929214544</v>
       </c>
       <c r="D78">
-        <v>0.06347327128984487</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006232605660015559</v>
+      </c>
+      <c r="E78">
+        <v>-0.03534573938348143</v>
+      </c>
+      <c r="F78">
+        <v>-0.03392617118817486</v>
+      </c>
+      <c r="G78">
+        <v>0.1029282268389377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0005072244012380834</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005898528577166154</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0002988742267429288</v>
+      </c>
+      <c r="E79">
+        <v>-0.002947340718953067</v>
+      </c>
+      <c r="F79">
+        <v>-0.001863764600165714</v>
+      </c>
+      <c r="G79">
+        <v>0.000695350607689007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03487912057308744</v>
+        <v>0.04260480407212524</v>
       </c>
       <c r="C80">
-        <v>-0.005840473542848964</v>
+        <v>-0.052103095697044</v>
       </c>
       <c r="D80">
-        <v>0.07612685565104411</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01328431549695684</v>
+      </c>
+      <c r="E80">
+        <v>-0.02665848631417451</v>
+      </c>
+      <c r="F80">
+        <v>-0.007031102712285013</v>
+      </c>
+      <c r="G80">
+        <v>0.05353045989124849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06839212214209602</v>
+        <v>0.1367018814877211</v>
       </c>
       <c r="C81">
-        <v>-0.0415447524767908</v>
+        <v>-0.09826470639957793</v>
       </c>
       <c r="D81">
-        <v>0.1645480344831328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0150993524925874</v>
+      </c>
+      <c r="E81">
+        <v>0.04418144788143447</v>
+      </c>
+      <c r="F81">
+        <v>0.1222664388091276</v>
+      </c>
+      <c r="G81">
+        <v>0.01948440130646283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.002430512409740528</v>
+        <v>0.1382801778176443</v>
       </c>
       <c r="C82">
-        <v>-0.001411810312719374</v>
+        <v>-0.08388343402204035</v>
       </c>
       <c r="D82">
-        <v>0.001601429128865626</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01063127956408345</v>
+      </c>
+      <c r="E82">
+        <v>0.112403963953678</v>
+      </c>
+      <c r="F82">
+        <v>0.05530147420652495</v>
+      </c>
+      <c r="G82">
+        <v>0.06035122667933016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01249048040942964</v>
+        <v>0.03576939571110773</v>
       </c>
       <c r="C83">
-        <v>-0.001979124999036249</v>
+        <v>-0.02929136262165499</v>
       </c>
       <c r="D83">
-        <v>0.0182116449933865</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006074106947972513</v>
+      </c>
+      <c r="E83">
+        <v>-0.03271460349319773</v>
+      </c>
+      <c r="F83">
+        <v>-0.02738171762737483</v>
+      </c>
+      <c r="G83">
+        <v>0.06272147790996682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1066871983708063</v>
+        <v>0.2094580967079697</v>
       </c>
       <c r="C85">
-        <v>-0.05392444043665223</v>
+        <v>-0.1487548956924534</v>
       </c>
       <c r="D85">
-        <v>0.262503093976303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01709868439349919</v>
+      </c>
+      <c r="E85">
+        <v>0.1099235745033874</v>
+      </c>
+      <c r="F85">
+        <v>0.1021637154352065</v>
+      </c>
+      <c r="G85">
+        <v>-0.06367273417184301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01504329795669769</v>
+        <v>0.01348362400008924</v>
       </c>
       <c r="C86">
-        <v>-0.002077858301697812</v>
+        <v>-0.02542959320859036</v>
       </c>
       <c r="D86">
-        <v>0.0361256476686787</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01159802330003095</v>
+      </c>
+      <c r="E86">
+        <v>-0.05339282355566819</v>
+      </c>
+      <c r="F86">
+        <v>-0.01229999960760849</v>
+      </c>
+      <c r="G86">
+        <v>0.1938535501632778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005545549126978341</v>
+        <v>0.0216309485973318</v>
       </c>
       <c r="C87">
-        <v>0.01212851422241006</v>
+        <v>-0.01946807466976697</v>
       </c>
       <c r="D87">
-        <v>0.02693227304999328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01223968849191705</v>
+      </c>
+      <c r="E87">
+        <v>-0.09722103794976547</v>
+      </c>
+      <c r="F87">
+        <v>0.002479286069331942</v>
+      </c>
+      <c r="G87">
+        <v>0.121386717701744</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05167310269343229</v>
+        <v>0.0922493566377708</v>
       </c>
       <c r="C88">
-        <v>-0.001271691717764642</v>
+        <v>-0.06958240529284197</v>
       </c>
       <c r="D88">
-        <v>0.04220478666353259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02207219679910532</v>
+      </c>
+      <c r="E88">
+        <v>0.005019578020849092</v>
+      </c>
+      <c r="F88">
+        <v>0.01991757643539326</v>
+      </c>
+      <c r="G88">
+        <v>0.1037803785569642</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3530214241225895</v>
+        <v>0.2358623033656553</v>
       </c>
       <c r="C89">
-        <v>-0.1601044068609765</v>
+        <v>0.3675288885171865</v>
       </c>
       <c r="D89">
-        <v>-0.2190499406197517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0001766763139286254</v>
+      </c>
+      <c r="E89">
+        <v>0.02063977318455264</v>
+      </c>
+      <c r="F89">
+        <v>0.02561968450408292</v>
+      </c>
+      <c r="G89">
+        <v>0.06983252155308162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2922763457764319</v>
+        <v>0.2100405801119342</v>
       </c>
       <c r="C90">
-        <v>-0.1360377131403408</v>
+        <v>0.3153725405653147</v>
       </c>
       <c r="D90">
-        <v>-0.1990588250552524</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004324069951470156</v>
+      </c>
+      <c r="E90">
+        <v>0.0004139079418051852</v>
+      </c>
+      <c r="F90">
+        <v>0.04440116894053989</v>
+      </c>
+      <c r="G90">
+        <v>0.04278436854728447</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1069962768096468</v>
+        <v>0.1852092990650119</v>
       </c>
       <c r="C91">
-        <v>-0.06793609208283505</v>
+        <v>-0.1410447603908732</v>
       </c>
       <c r="D91">
-        <v>0.2196257439875776</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0223218167882512</v>
+      </c>
+      <c r="E91">
+        <v>0.07343706804557917</v>
+      </c>
+      <c r="F91">
+        <v>0.1326170049388056</v>
+      </c>
+      <c r="G91">
+        <v>0.03346108496888471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2472202179109636</v>
+        <v>0.2015583377629884</v>
       </c>
       <c r="C92">
-        <v>-0.1491109805473995</v>
+        <v>0.2562895527432825</v>
       </c>
       <c r="D92">
-        <v>-0.1020722612848404</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03805726550994431</v>
+      </c>
+      <c r="E92">
+        <v>-0.03425820552124785</v>
+      </c>
+      <c r="F92">
+        <v>0.05933148515147476</v>
+      </c>
+      <c r="G92">
+        <v>0.1117532364659531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.3120376320030269</v>
+        <v>0.2341848437207668</v>
       </c>
       <c r="C93">
-        <v>-0.1518831544194483</v>
+        <v>0.3095371217490107</v>
       </c>
       <c r="D93">
-        <v>-0.1646445735614331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01109537616796745</v>
+      </c>
+      <c r="E93">
+        <v>-0.001484427145255677</v>
+      </c>
+      <c r="F93">
+        <v>0.04083192578907276</v>
+      </c>
+      <c r="G93">
+        <v>0.05816238529572744</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1569986485814564</v>
+        <v>0.3214110858150488</v>
       </c>
       <c r="C94">
-        <v>-0.07108923904688087</v>
+        <v>-0.1830229160132386</v>
       </c>
       <c r="D94">
-        <v>0.278858147745754</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02079803083889371</v>
+      </c>
+      <c r="E94">
+        <v>0.2567303959494008</v>
+      </c>
+      <c r="F94">
+        <v>0.4637039528341729</v>
+      </c>
+      <c r="G94">
+        <v>-0.4033979104246351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0107774108715909</v>
+        <v>0.09876051764493496</v>
       </c>
       <c r="C95">
-        <v>-0.01460191917199881</v>
+        <v>-0.08774607894398459</v>
       </c>
       <c r="D95">
-        <v>0.1241378301566168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01015146563936695</v>
+      </c>
+      <c r="E95">
+        <v>-0.08766408975455611</v>
+      </c>
+      <c r="F95">
+        <v>-0.1619250764781179</v>
+      </c>
+      <c r="G95">
+        <v>0.01543004471299153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1497296046889868</v>
+        <v>0.1931408981217681</v>
       </c>
       <c r="C98">
-        <v>-0.08942148064697757</v>
+        <v>-0.04567264547277108</v>
       </c>
       <c r="D98">
-        <v>0.1254370402705118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01217617843077669</v>
+      </c>
+      <c r="E98">
+        <v>-0.09405249943986932</v>
+      </c>
+      <c r="F98">
+        <v>-0.2339413280977581</v>
+      </c>
+      <c r="G98">
+        <v>-0.02780699081639059</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007567312631072612</v>
+        <v>0.008428229627664619</v>
       </c>
       <c r="C101">
-        <v>0.003016291833115658</v>
+        <v>-0.02279923445955239</v>
       </c>
       <c r="D101">
-        <v>0.01491231937747639</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009161375680224732</v>
+      </c>
+      <c r="E101">
+        <v>-0.005033461938494039</v>
+      </c>
+      <c r="F101">
+        <v>0.01580328655792878</v>
+      </c>
+      <c r="G101">
+        <v>0.09871792489067709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.06328851286155676</v>
+        <v>0.1145352887714716</v>
       </c>
       <c r="C102">
-        <v>-0.0244256445868866</v>
+        <v>-0.08295831725848289</v>
       </c>
       <c r="D102">
-        <v>0.1357446909330763</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.000867704152641033</v>
+      </c>
+      <c r="E102">
+        <v>0.03807200472274253</v>
+      </c>
+      <c r="F102">
+        <v>0.03848266255071563</v>
+      </c>
+      <c r="G102">
+        <v>0.013931157783677</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.4341059192407121</v>
+        <v>0.02115296743186213</v>
       </c>
       <c r="C104">
-        <v>0.8910802424481099</v>
+        <v>0.02925072486128564</v>
       </c>
       <c r="D104">
-        <v>-0.01829813268547397</v>
+        <v>0.9877494861797028</v>
+      </c>
+      <c r="E104">
+        <v>0.05560198917589608</v>
+      </c>
+      <c r="F104">
+        <v>0.03296657737766805</v>
+      </c>
+      <c r="G104">
+        <v>-0.04010860305471664</v>
       </c>
     </row>
   </sheetData>
